--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Adam23</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>10.2075524852133</v>
+        <v>0.02053466666666667</v>
       </c>
       <c r="H2">
-        <v>10.2075524852133</v>
+        <v>0.061604</v>
       </c>
       <c r="I2">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="J2">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.12883709121775</v>
+        <v>0.1448543333333333</v>
       </c>
       <c r="N2">
-        <v>0.12883709121775</v>
+        <v>0.434563</v>
       </c>
       <c r="O2">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137001</v>
       </c>
       <c r="P2">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137</v>
       </c>
       <c r="Q2">
-        <v>1.315111370647397</v>
+        <v>0.002974535450222222</v>
       </c>
       <c r="R2">
-        <v>1.315111370647397</v>
+        <v>0.026770819052</v>
       </c>
       <c r="S2">
-        <v>0.006964003237060023</v>
+        <v>1.450409826031169E-05</v>
       </c>
       <c r="T2">
-        <v>0.006964003237060023</v>
+        <v>1.450409826031169E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>10.2075524852133</v>
+        <v>0.02053466666666667</v>
       </c>
       <c r="H3">
-        <v>10.2075524852133</v>
+        <v>0.061604</v>
       </c>
       <c r="I3">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="J3">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.7714334613835</v>
+        <v>14.494489</v>
       </c>
       <c r="N3">
-        <v>13.7714334613835</v>
+        <v>43.483467</v>
       </c>
       <c r="O3">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625467</v>
       </c>
       <c r="P3">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625465</v>
       </c>
       <c r="Q3">
-        <v>140.5726298536948</v>
+        <v>0.2976395001186667</v>
       </c>
       <c r="R3">
-        <v>140.5726298536948</v>
+        <v>2.678755501068</v>
       </c>
       <c r="S3">
-        <v>0.7443842941311188</v>
+        <v>0.001451316559548376</v>
       </c>
       <c r="T3">
-        <v>0.7443842941311188</v>
+        <v>0.001451316559548375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>10.2075524852133</v>
+        <v>0.02053466666666667</v>
       </c>
       <c r="H4">
-        <v>10.2075524852133</v>
+        <v>0.061604</v>
       </c>
       <c r="I4">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="J4">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.12577895134622</v>
+        <v>0.091182</v>
       </c>
       <c r="N4">
-        <v>4.12577895134622</v>
+        <v>0.273546</v>
       </c>
       <c r="O4">
-        <v>0.2288787096941417</v>
+        <v>0.004730213666123443</v>
       </c>
       <c r="P4">
-        <v>0.2288787096941417</v>
+        <v>0.004730213666123443</v>
       </c>
       <c r="Q4">
-        <v>42.11410518825483</v>
+        <v>0.001872391976</v>
       </c>
       <c r="R4">
-        <v>42.11410518825483</v>
+        <v>0.016851527784</v>
       </c>
       <c r="S4">
-        <v>0.2230098312605396</v>
+        <v>9.129949081526087E-06</v>
       </c>
       <c r="T4">
-        <v>0.2230098312605396</v>
+        <v>9.129949081526087E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.268628895424528</v>
+        <v>0.02053466666666667</v>
       </c>
       <c r="H5">
-        <v>0.268628895424528</v>
+        <v>0.061604</v>
       </c>
       <c r="I5">
-        <v>0.02564187137128136</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="J5">
-        <v>0.02564187137128136</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.12883709121775</v>
+        <v>4.545982333333334</v>
       </c>
       <c r="N5">
-        <v>0.12883709121775</v>
+        <v>13.637947</v>
       </c>
       <c r="O5">
-        <v>0.007147272683875431</v>
+        <v>0.235830183140193</v>
       </c>
       <c r="P5">
-        <v>0.007147272683875431</v>
+        <v>0.2358301831401929</v>
       </c>
       <c r="Q5">
-        <v>0.03460936550353334</v>
+        <v>0.09335023188755556</v>
       </c>
       <c r="R5">
-        <v>0.03460936550353334</v>
+        <v>0.840152086988</v>
       </c>
       <c r="S5">
-        <v>0.0001832694468154067</v>
+        <v>0.0004551839971578874</v>
       </c>
       <c r="T5">
-        <v>0.0001832694468154067</v>
+        <v>0.0004551839971578873</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.268628895424528</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H6">
-        <v>0.268628895424528</v>
+        <v>30.823943</v>
       </c>
       <c r="I6">
-        <v>0.02564187137128136</v>
+        <v>0.9657548051669733</v>
       </c>
       <c r="J6">
-        <v>0.02564187137128136</v>
+        <v>0.9657548051669733</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.7714334613835</v>
+        <v>0.1448543333333333</v>
       </c>
       <c r="N6">
-        <v>13.7714334613835</v>
+        <v>0.434563</v>
       </c>
       <c r="O6">
-        <v>0.7639740176219829</v>
+        <v>0.007514552731137001</v>
       </c>
       <c r="P6">
-        <v>0.7639740176219829</v>
+        <v>0.007514552731137</v>
       </c>
       <c r="Q6">
-        <v>3.699404959143834</v>
+        <v>1.488327237989889</v>
       </c>
       <c r="R6">
-        <v>3.699404959143834</v>
+        <v>13.394945141909</v>
       </c>
       <c r="S6">
-        <v>0.01958972349086393</v>
+        <v>0.007257215408776161</v>
       </c>
       <c r="T6">
-        <v>0.01958972349086393</v>
+        <v>0.007257215408776161</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.268628895424528</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H7">
-        <v>0.268628895424528</v>
+        <v>30.823943</v>
       </c>
       <c r="I7">
-        <v>0.02564187137128136</v>
+        <v>0.9657548051669733</v>
       </c>
       <c r="J7">
-        <v>0.02564187137128136</v>
+        <v>0.9657548051669733</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.12577895134622</v>
+        <v>14.494489</v>
       </c>
       <c r="N7">
-        <v>4.12577895134622</v>
+        <v>43.483467</v>
       </c>
       <c r="O7">
-        <v>0.2288787096941417</v>
+        <v>0.7519250504625467</v>
       </c>
       <c r="P7">
-        <v>0.2288787096941417</v>
+        <v>0.7519250504625465</v>
       </c>
       <c r="Q7">
-        <v>1.108303442465903</v>
+        <v>148.9257675833757</v>
       </c>
       <c r="R7">
-        <v>1.108303442465903</v>
+        <v>1340.331908250381</v>
       </c>
       <c r="S7">
-        <v>0.005868878433602029</v>
+        <v>0.7261752306096233</v>
       </c>
       <c r="T7">
-        <v>0.005868878433602029</v>
+        <v>0.7261752306096232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.27464766666667</v>
+      </c>
+      <c r="H8">
+        <v>30.823943</v>
+      </c>
+      <c r="I8">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="J8">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.091182</v>
+      </c>
+      <c r="N8">
+        <v>0.273546</v>
+      </c>
+      <c r="O8">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="P8">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="Q8">
+        <v>0.936862923542</v>
+      </c>
+      <c r="R8">
+        <v>8.431766311878</v>
+      </c>
+      <c r="S8">
+        <v>0.0045682265775252</v>
+      </c>
+      <c r="T8">
+        <v>0.0045682265775252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.27464766666667</v>
+      </c>
+      <c r="H9">
+        <v>30.823943</v>
+      </c>
+      <c r="I9">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="J9">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.545982333333334</v>
+      </c>
+      <c r="N9">
+        <v>13.637947</v>
+      </c>
+      <c r="O9">
+        <v>0.235830183140193</v>
+      </c>
+      <c r="P9">
+        <v>0.2358301831401929</v>
+      </c>
+      <c r="Q9">
+        <v>46.70836677389123</v>
+      </c>
+      <c r="R9">
+        <v>420.375300965021</v>
+      </c>
+      <c r="S9">
+        <v>0.2277541325710487</v>
+      </c>
+      <c r="T9">
+        <v>0.2277541325710487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3437993333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.031398</v>
+      </c>
+      <c r="I10">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="J10">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1448543333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.434563</v>
+      </c>
+      <c r="O10">
+        <v>0.007514552731137001</v>
+      </c>
+      <c r="P10">
+        <v>0.007514552731137</v>
+      </c>
+      <c r="Q10">
+        <v>0.04980082323044444</v>
+      </c>
+      <c r="R10">
+        <v>0.448207409074</v>
+      </c>
+      <c r="S10">
+        <v>0.0002428332241005284</v>
+      </c>
+      <c r="T10">
+        <v>0.0002428332241005284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3437993333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.031398</v>
+      </c>
+      <c r="I11">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="J11">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.494489</v>
+      </c>
+      <c r="N11">
+        <v>43.483467</v>
+      </c>
+      <c r="O11">
+        <v>0.7519250504625467</v>
+      </c>
+      <c r="P11">
+        <v>0.7519250504625465</v>
+      </c>
+      <c r="Q11">
+        <v>4.983195655207333</v>
+      </c>
+      <c r="R11">
+        <v>44.848760896866</v>
+      </c>
+      <c r="S11">
+        <v>0.02429850329337503</v>
+      </c>
+      <c r="T11">
+        <v>0.02429850329337502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3437993333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.031398</v>
+      </c>
+      <c r="I12">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="J12">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.091182</v>
+      </c>
+      <c r="N12">
+        <v>0.273546</v>
+      </c>
+      <c r="O12">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="P12">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="Q12">
+        <v>0.03134831081199999</v>
+      </c>
+      <c r="R12">
+        <v>0.282134797308</v>
+      </c>
+      <c r="S12">
+        <v>0.0001528571395167171</v>
+      </c>
+      <c r="T12">
+        <v>0.0001528571395167171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3437993333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.031398</v>
+      </c>
+      <c r="I13">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="J13">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.545982333333334</v>
+      </c>
+      <c r="N13">
+        <v>13.637947</v>
+      </c>
+      <c r="O13">
+        <v>0.235830183140193</v>
+      </c>
+      <c r="P13">
+        <v>0.2358301831401929</v>
+      </c>
+      <c r="Q13">
+        <v>1.562905695545111</v>
+      </c>
+      <c r="R13">
+        <v>14.066151259906</v>
+      </c>
+      <c r="S13">
+        <v>0.007620866571986409</v>
+      </c>
+      <c r="T13">
+        <v>0.007620866571986406</v>
       </c>
     </row>
   </sheetData>
